--- a/result_summary.xlsx
+++ b/result_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaguo/Desktop/CSCI662NLP/final_proj/CompareNet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2595E-F202-184B-9167-1CFAB9CA201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E409611-6EFD-B949-9C14-8E9747807797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="4960" windowWidth="28040" windowHeight="17440" xr2:uid="{F0D12ECD-F4E2-8E4A-8129-03233ED78823}"/>
+    <workbookView xWindow="6180" yWindow="3400" windowWidth="28040" windowHeight="17440" xr2:uid="{F0D12ECD-F4E2-8E4A-8129-03233ED78823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>avg</t>
   </si>
@@ -72,7 +72,16 @@
     <t>w/o entity triplet</t>
   </si>
   <si>
-    <t>bert</t>
+    <t>BASIC EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>ABLATIONS</t>
+  </si>
+  <si>
+    <t>BERT ENCODER</t>
+  </si>
+  <si>
+    <t>std err</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,13 +119,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,610 +461,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935B6B85-8969-8443-BFAB-52789ABED9D5}">
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>58.81</v>
-      </c>
-      <c r="C2">
-        <v>43.99</v>
-      </c>
-      <c r="D2">
-        <v>58.66</v>
-      </c>
-      <c r="E2">
-        <v>50.09</v>
-      </c>
-      <c r="H2">
-        <v>88.89</v>
-      </c>
-      <c r="I2">
-        <v>89.06</v>
-      </c>
-      <c r="J2">
-        <v>88.89</v>
-      </c>
-      <c r="K2">
-        <v>88.88</v>
-      </c>
-      <c r="N2">
-        <v>60.19</v>
-      </c>
-      <c r="Q2">
-        <v>51.99</v>
-      </c>
-      <c r="T2">
-        <v>71.47</v>
-      </c>
-      <c r="W2">
-        <v>71.02</v>
-      </c>
-      <c r="Z2">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="AC2">
-        <v>68.44</v>
-      </c>
-      <c r="AF2">
-        <v>66.62</v>
-      </c>
-      <c r="AI2">
-        <v>66.14</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>34.69</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>8.67</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>12.88</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="17" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>57.46</v>
+        <v>58.81</v>
       </c>
       <c r="C3">
-        <v>42.81</v>
+        <v>43.99</v>
       </c>
       <c r="D3">
-        <v>57.32</v>
+        <v>58.66</v>
       </c>
       <c r="E3">
-        <v>48.6</v>
+        <v>50.09</v>
       </c>
       <c r="H3">
-        <v>79.72</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I3">
-        <v>79.75</v>
+        <v>67.86</v>
       </c>
       <c r="J3">
-        <v>79.72</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="K3">
-        <v>79.72</v>
-      </c>
-      <c r="N3">
-        <v>70.760000000000005</v>
-      </c>
-      <c r="Q3">
-        <v>69.87</v>
-      </c>
-      <c r="T3">
-        <v>59.75</v>
-      </c>
-      <c r="W3">
-        <v>57.64</v>
-      </c>
-      <c r="Z3">
-        <v>64.13</v>
-      </c>
-      <c r="AC3">
-        <v>63.46</v>
-      </c>
-      <c r="AF3">
-        <v>70.73</v>
-      </c>
-      <c r="AI3">
-        <v>70.63</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>36.729999999999997</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>25.36</v>
-      </c>
-      <c r="AN3">
-        <v>27.94</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>17.899999999999999</v>
-      </c>
+        <v>65.23</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="1:41" ht="17" x14ac:dyDescent="0.2">
       <c r="B4">
+        <v>57.46</v>
+      </c>
+      <c r="C4">
+        <v>42.81</v>
+      </c>
+      <c r="D4">
+        <v>57.32</v>
+      </c>
+      <c r="E4">
+        <v>48.6</v>
+      </c>
+      <c r="H4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I4">
+        <v>68.91</v>
+      </c>
+      <c r="J4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K4">
+        <v>68.2</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
+    <row r="5" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>66.89</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>69.95</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>66.92</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>66.56</v>
       </c>
-      <c r="H4">
-        <v>86.11</v>
-      </c>
-      <c r="I4">
-        <v>86.22</v>
-      </c>
-      <c r="J4">
-        <v>86.11</v>
-      </c>
-      <c r="K4">
-        <v>86.1</v>
-      </c>
-      <c r="N4">
-        <v>60.05</v>
-      </c>
-      <c r="Q4">
-        <v>51.64</v>
-      </c>
-      <c r="T4">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="W4">
-        <v>66.56</v>
-      </c>
-      <c r="Z4">
-        <v>63.42</v>
-      </c>
-      <c r="AC4">
-        <v>62.85</v>
-      </c>
-      <c r="AF4">
-        <v>67.7</v>
-      </c>
-      <c r="AI4">
-        <v>67.06</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>41.03</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>36.880000000000003</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>41.03</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>30.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="C5">
-        <v>70.45</v>
-      </c>
-      <c r="D5">
-        <v>67.650000000000006</v>
-      </c>
-      <c r="E5">
-        <v>67.260000000000005</v>
-      </c>
       <c r="H5">
-        <v>87.78</v>
+        <v>61.3</v>
       </c>
       <c r="I5">
-        <v>87.89</v>
+        <v>47.9</v>
       </c>
       <c r="J5">
-        <v>87.78</v>
+        <v>61.3</v>
       </c>
       <c r="K5">
-        <v>87.77</v>
-      </c>
-      <c r="N5">
-        <v>62.14</v>
-      </c>
-      <c r="Q5">
-        <v>61.73</v>
-      </c>
-      <c r="T5">
-        <v>68.17</v>
-      </c>
-      <c r="W5">
-        <v>67.819999999999993</v>
-      </c>
-      <c r="Z5">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="AC5">
-        <v>63.44</v>
-      </c>
-      <c r="AF5">
-        <v>70.56</v>
-      </c>
-      <c r="AI5">
-        <v>70.290000000000006</v>
-      </c>
+        <v>53.29</v>
+      </c>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B6">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C6">
+        <v>70.45</v>
+      </c>
+      <c r="D6">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="E6">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="H6">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="I6">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="J6">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K6">
+        <v>69.489999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>68.14</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>70.599999999999994</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>68.099999999999994</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>67.58</v>
       </c>
-      <c r="H6">
-        <v>87.78</v>
-      </c>
-      <c r="I6">
-        <v>87.8</v>
-      </c>
-      <c r="J6">
-        <v>87.78</v>
-      </c>
-      <c r="K6">
-        <v>87.78</v>
-      </c>
-      <c r="N6">
-        <v>65.11</v>
-      </c>
-      <c r="Q6">
-        <v>64.06</v>
-      </c>
-      <c r="T6">
-        <v>59.31</v>
-      </c>
-      <c r="W6">
-        <v>56.93</v>
-      </c>
-      <c r="Z6">
-        <v>68.78</v>
-      </c>
-      <c r="AC6">
-        <v>68.13</v>
-      </c>
-      <c r="AF6">
-        <v>66.489999999999995</v>
-      </c>
-      <c r="AI6">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H7">
+        <v>68.47</v>
+      </c>
+      <c r="I7">
+        <v>68.86</v>
+      </c>
+      <c r="J7">
+        <v>68.47</v>
+      </c>
+      <c r="K7">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <f>AVERAGE(B2:B6)</f>
+      <c r="B8">
+        <f>AVERAGE(B3:B7)</f>
         <v>63.780000000000008</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+      <c r="C8">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
         <v>59.559999999999988</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>63.73</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>60.017999999999994</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7" si="1">AVERAGE(H2:H6)</f>
+      <c r="H8">
+        <f>AVERAGE(H3:H7)</f>
+        <v>66.934000000000012</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:K8" si="1">AVERAGE(I3:I7)</f>
+        <v>64.86999999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>66.934000000000012</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>64.861999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f>STDEV(B3:B8)/SQRT(COUNT(B3:B8))</f>
+        <v>1.8966408902759282</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:E9" si="2">STDEV(C3:C8)/SQRT(COUNT(C3:C8))</f>
+        <v>5.3895367766318056</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9272813321706135</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5654082515190799</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <f>STDEV(H3:H7)/SQRT(COUNT(H3:H7))</f>
+        <v>1.5257640708838309</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9:K9" si="3">STDEV(I3:I7)/SQRT(COUNT(I3:I7))</f>
+        <v>4.2694566399016427</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5257640708838309</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9756669840558434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12">
+        <v>88.89</v>
+      </c>
+      <c r="C12">
+        <v>89.06</v>
+      </c>
+      <c r="D12">
+        <v>88.89</v>
+      </c>
+      <c r="E12">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>79.72</v>
+      </c>
+      <c r="C13">
+        <v>79.75</v>
+      </c>
+      <c r="D13">
+        <v>79.72</v>
+      </c>
+      <c r="E13">
+        <v>79.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>86.11</v>
+      </c>
+      <c r="C14">
+        <v>86.22</v>
+      </c>
+      <c r="D14">
+        <v>86.11</v>
+      </c>
+      <c r="E14">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>87.78</v>
+      </c>
+      <c r="C15">
+        <v>87.89</v>
+      </c>
+      <c r="D15">
+        <v>87.78</v>
+      </c>
+      <c r="E15">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>87.78</v>
+      </c>
+      <c r="C16">
+        <v>87.8</v>
+      </c>
+      <c r="D16">
+        <v>87.78</v>
+      </c>
+      <c r="E16">
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17" si="4">AVERAGE(B12:B16)</f>
         <v>86.055999999999997</v>
       </c>
-      <c r="I7">
-        <f t="shared" ref="I7" si="2">AVERAGE(I2:I6)</f>
+      <c r="C17">
+        <f t="shared" ref="C17" si="5">AVERAGE(C12:C16)</f>
         <v>86.144000000000005</v>
       </c>
-      <c r="J7">
-        <f t="shared" ref="J7" si="3">AVERAGE(J2:J6)</f>
+      <c r="D17">
+        <f t="shared" ref="D17" si="6">AVERAGE(D12:D16)</f>
         <v>86.055999999999997</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7" si="4">AVERAGE(K2:K6)</f>
+      <c r="E17">
+        <f t="shared" ref="E17" si="7">AVERAGE(E12:E16)</f>
         <v>86.05</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ref="B18" si="8">STDEV(B12:B17)/SQRT(COUNT(B12:B17))</f>
+        <v>1.3431768312474726</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18" si="9">STDEV(C12:C17)/SQRT(COUNT(C12:C17))</f>
+        <v>1.3562561213379527</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="10">STDEV(D12:D17)/SQRT(COUNT(D12:D17))</f>
+        <v>1.3431768312474726</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18" si="11">STDEV(E12:E17)/SQRT(COUNT(E12:E17))</f>
+        <v>1.3420332832435018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>66.62</v>
+      </c>
+      <c r="E22">
+        <v>66.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>70.73</v>
+      </c>
+      <c r="E23">
+        <v>70.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>67.7</v>
+      </c>
+      <c r="E24">
+        <v>67.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>70.56</v>
+      </c>
+      <c r="E25">
+        <v>70.290000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="E26">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7" si="5">AVERAGE(N2:N6)</f>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">AVERAGE(B22:B26)</f>
+        <v>68.42</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="13">AVERAGE(E22:E26)</f>
+        <v>67.981999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28" si="14">STDEV(B22:B27)/SQRT(COUNT(B22:B27))</f>
+        <v>0.76155542586647484</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28" si="15">STDEV(E22:E27)/SQRT(COUNT(E22:E27))</f>
+        <v>0.844327740473646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>60.19</v>
+      </c>
+      <c r="E32">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="E33">
+        <v>69.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>60.05</v>
+      </c>
+      <c r="E34">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>62.14</v>
+      </c>
+      <c r="E35">
+        <v>61.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>65.11</v>
+      </c>
+      <c r="E36">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
         <v>63.65</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7" si="6">AVERAGE(Q2:Q6)</f>
+      <c r="E37">
         <v>59.85799999999999</v>
       </c>
-      <c r="S7" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.6319252433858618</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>2.8916101627524897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>71.47</v>
+      </c>
+      <c r="E42">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>59.75</v>
+      </c>
+      <c r="E43">
+        <v>57.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="E44">
+        <v>66.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>68.17</v>
+      </c>
+      <c r="E45">
+        <v>67.819999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>59.31</v>
+      </c>
+      <c r="E46">
+        <v>56.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="T7">
-        <f t="shared" ref="T7" si="7">AVERAGE(T2:T6)</f>
+      <c r="B47">
         <v>65.138000000000005</v>
       </c>
-      <c r="W7">
-        <f t="shared" ref="W7" si="8">AVERAGE(W2:W6)</f>
+      <c r="E47">
         <v>63.993999999999993</v>
       </c>
-      <c r="Y7" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.9639524773612349</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>2.315604456723988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="E52">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>64.13</v>
+      </c>
+      <c r="E53">
+        <v>63.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>63.42</v>
+      </c>
+      <c r="E54">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E55">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>68.78</v>
+      </c>
+      <c r="E56">
+        <v>68.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <f t="shared" ref="Z7" si="9">AVERAGE(Z2:Z6)</f>
+      <c r="B57">
         <v>65.887999999999991</v>
       </c>
-      <c r="AC7">
-        <f t="shared" ref="AC7" si="10">AVERAGE(AC2:AC6)</f>
+      <c r="E57">
         <v>65.263999999999996</v>
       </c>
-      <c r="AE7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" ref="AF7" si="11">AVERAGE(AF2:AF6)</f>
-        <v>68.42</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" ref="AI7" si="12">AVERAGE(AI2:AI6)</f>
-        <v>67.981999999999999</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" ref="AL7" si="13">AVERAGE(AL2:AL6)</f>
-        <v>37.483333333333327</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" ref="AM7" si="14">AVERAGE(AM2:AM6)</f>
-        <v>23.636666666666667</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7" si="15">AVERAGE(AN2:AN6)</f>
-        <v>31.323333333333334</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7" si="16">AVERAGE(AO2:AO6)</f>
-        <v>20.540000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>STDEV(B2:B7)/SQRT(COUNT(B2:B7))</f>
-        <v>1.8966408902759282</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:E8" si="17">STDEV(C2:C7)/SQRT(COUNT(C2:C7))</f>
-        <v>5.3895367766318056</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="17"/>
-        <v>1.9272813321706135</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="17"/>
-        <v>3.5654082515190799</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8" si="18">STDEV(H2:H7)/SQRT(COUNT(H2:H7))</f>
-        <v>1.3431768312474726</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8" si="19">STDEV(I2:I7)/SQRT(COUNT(I2:I7))</f>
-        <v>1.3562561213379527</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8" si="20">STDEV(J2:J7)/SQRT(COUNT(J2:J7))</f>
-        <v>1.3431768312474726</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8" si="21">STDEV(K2:K7)/SQRT(COUNT(K2:K7))</f>
-        <v>1.3420332832435018</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8" si="22">STDEV(N2:N7)/SQRT(COUNT(N2:N7))</f>
-        <v>1.6319252433858618</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ref="Q8" si="23">STDEV(Q2:Q7)/SQRT(COUNT(Q2:Q7))</f>
-        <v>2.8916101627524897</v>
-      </c>
-      <c r="S8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ref="T8" si="24">STDEV(T2:T7)/SQRT(COUNT(T2:T7))</f>
-        <v>1.9639524773612349</v>
-      </c>
-      <c r="W8">
-        <f t="shared" ref="W8" si="25">STDEV(W2:W7)/SQRT(COUNT(W2:W7))</f>
-        <v>2.315604456723988</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" ref="Z8" si="26">STDEV(Z2:Z7)/SQRT(COUNT(Z2:Z7))</f>
+      <c r="B58" s="2">
         <v>1.0081183792921689</v>
       </c>
-      <c r="AC8">
-        <f t="shared" ref="AC8" si="27">STDEV(AC2:AC7)/SQRT(COUNT(AC2:AC7))</f>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
         <v>1.011759523470539</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" ref="AF8" si="28">STDEV(AF2:AF7)/SQRT(COUNT(AF2:AF7))</f>
-        <v>0.76155542586647484</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" ref="AI8" si="29">STDEV(AI2:AI7)/SQRT(COUNT(AI2:AI7))</f>
-        <v>0.844327740473646</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" ref="AL8" si="30">STDEV(AL2:AL7)/SQRT(COUNT(AL2:AL7))</f>
-        <v>1.3212704324079751</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" ref="AM8" si="31">STDEV(AM2:AM7)/SQRT(COUNT(AM2:AM7))</f>
-        <v>5.7904869302062076</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" ref="AN8" si="32">STDEV(AN2:AN7)/SQRT(COUNT(AN2:AN7))</f>
-        <v>3.4839018674787954</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" ref="AO8" si="33">STDEV(AO2:AO7)/SQRT(COUNT(AO2:AO7))</f>
-        <v>3.783023482172247</v>
       </c>
     </row>
   </sheetData>

--- a/result_summary.xlsx
+++ b/result_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaguo/Desktop/CSCI662NLP/final_proj/CompareNet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E409611-6EFD-B949-9C14-8E9747807797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C976A-F68A-254B-A770-04C21D6580D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3400" windowWidth="28040" windowHeight="17440" xr2:uid="{F0D12ECD-F4E2-8E4A-8129-03233ED78823}"/>
+    <workbookView xWindow="37900" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{F0D12ECD-F4E2-8E4A-8129-03233ED78823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>avg</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>std err</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,6 +761,13 @@
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
@@ -773,6 +783,18 @@
       <c r="E12">
         <v>88.88</v>
       </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -787,6 +809,18 @@
       <c r="E13">
         <v>79.72</v>
       </c>
+      <c r="H13">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="I13">
+        <v>68.67</v>
+      </c>
+      <c r="J13">
+        <v>66.45</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -801,6 +835,18 @@
       <c r="E14">
         <v>86.1</v>
       </c>
+      <c r="H14">
+        <v>59.85</v>
+      </c>
+      <c r="I14">
+        <v>63.38</v>
+      </c>
+      <c r="J14">
+        <v>59.87</v>
+      </c>
+      <c r="K14">
+        <v>58.54</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -815,6 +861,18 @@
       <c r="E15">
         <v>87.77</v>
       </c>
+      <c r="H15">
+        <v>67.06</v>
+      </c>
+      <c r="I15">
+        <v>69.17</v>
+      </c>
+      <c r="J15">
+        <v>67.11</v>
+      </c>
+      <c r="K15">
+        <v>67.19</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -829,8 +887,20 @@
       <c r="E16">
         <v>87.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>58.98</v>
+      </c>
+      <c r="I16">
+        <v>63.71</v>
+      </c>
+      <c r="J16">
+        <v>58.89</v>
+      </c>
+      <c r="K16">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -850,8 +920,20 @@
         <f t="shared" ref="E17" si="7">AVERAGE(E12:E16)</f>
         <v>86.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>61</v>
+      </c>
+      <c r="I17">
+        <v>46.06</v>
+      </c>
+      <c r="J17">
+        <v>60.8</v>
+      </c>
+      <c r="K17">
+        <v>52.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -871,8 +953,48 @@
         <f t="shared" ref="E18" si="11">STDEV(E12:E17)/SQRT(COUNT(E12:E17))</f>
         <v>1.3420332832435018</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H13:H17)</f>
+        <v>62.676000000000002</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="12">AVERAGE(I13:I17)</f>
+        <v>62.198</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>62.624000000000002</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>60.18399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <f>STDEV(H13:H17)/SQRT(COUNT(H13:H17))</f>
+        <v>1.7061904934678307</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" ref="I19:K19" si="13">STDEV(I13:I17)/SQRT(COUNT(I13:I17))</f>
+        <v>4.210783062566871</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7265097740818041</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="13"/>
+        <v>2.8105846366903808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -881,7 +1003,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -898,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>66.62</v>
       </c>
@@ -906,7 +1028,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>70.73</v>
       </c>
@@ -914,7 +1036,7 @@
         <v>70.63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>67.7</v>
       </c>
@@ -922,7 +1044,7 @@
         <v>67.06</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>70.56</v>
       </c>
@@ -930,7 +1052,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>66.489999999999995</v>
       </c>
@@ -938,35 +1060,35 @@
         <v>65.790000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="12">AVERAGE(B22:B26)</f>
+        <f t="shared" ref="B27" si="14">AVERAGE(B22:B26)</f>
         <v>68.42</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="13">AVERAGE(E22:E26)</f>
+        <f t="shared" ref="E27" si="15">AVERAGE(E22:E26)</f>
         <v>67.981999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" ref="B28" si="14">STDEV(B22:B27)/SQRT(COUNT(B22:B27))</f>
+        <f t="shared" ref="B28" si="16">STDEV(B22:B27)/SQRT(COUNT(B22:B27))</f>
         <v>0.76155542586647484</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <f t="shared" ref="E28" si="15">STDEV(E22:E27)/SQRT(COUNT(E22:E27))</f>
+        <f t="shared" ref="E28" si="17">STDEV(E22:E27)/SQRT(COUNT(E22:E27))</f>
         <v>0.844327740473646</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -983,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>60.19</v>
       </c>
